--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N00306125fc104feb884b5deeb4af4325</t>
+          <t>N4023876444e54496bc410afb71189c09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N4023876444e54496bc410afb71189c09</t>
+          <t>N398af8a2bb93457482a5d28246bdf7ea</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N00306125fc104feb884b5deeb4af4325</t>
+          <t>N398af8a2bb93457482a5d28246bdf7ea</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N398af8a2bb93457482a5d28246bdf7ea</t>
+          <t>Ne045019565f34019a6ebf7d0744ad3ce</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ne045019565f34019a6ebf7d0744ad3ce</t>
+          <t>Nfddb7d3e29b04a94a0749cd92a6ee5ac</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N398af8a2bb93457482a5d28246bdf7ea</t>
+          <t>Nfddb7d3e29b04a94a0749cd92a6ee5ac</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nfddb7d3e29b04a94a0749cd92a6ee5ac</t>
+          <t>N27c793e00d24477795d0c5a14145c221</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N27c793e00d24477795d0c5a14145c221</t>
+          <t>N12fdba772c7e4f8fb3b0c3dfcbea621b</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N12fdba772c7e4f8fb3b0c3dfcbea621b</t>
+          <t>Nd5d81edad3cf434386b2cda019b38c38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nd5d81edad3cf434386b2cda019b38c38</t>
+          <t>N586398cc1dea4e0f849d52f7ecee2533</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N586398cc1dea4e0f849d52f7ecee2533</t>
+          <t>N86886d8804104067991b7aaefce3059b</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N86886d8804104067991b7aaefce3059b</t>
+          <t>Nb322de4dcd044e188c6d3b2cda08ea94</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -4340,7 +4340,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nfddb7d3e29b04a94a0749cd92a6ee5ac</t>
+          <t>Nb322de4dcd044e188c6d3b2cda08ea94</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N85672623eeca4723b0bc4dc02717a14f</t>
+    <t>N5b7ad6b117df4d9d8fe33d6e083fa217</t>
   </si>
   <si>
     <t>float</t>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N5b7ad6b117df4d9d8fe33d6e083fa217</t>
+    <t>N19215018af4340a39d5626585a34ce39</t>
   </si>
   <si>
     <t>float</t>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>N19215018af4340a39d5626585a34ce39</t>
+    <t>Nbd3da7eec40b4bd3a7f6bc149be881ed</t>
   </si>
   <si>
     <t>float</t>

--- a/tests/data/transformation_rules.xlsx
+++ b/tests/data/transformation_rules.xlsx
@@ -513,7 +513,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>Nbd3da7eec40b4bd3a7f6bc149be881ed</t>
+    <t>Nd82ca46cc4e147fbad1f0dbbe5f167c6</t>
   </si>
   <si>
     <t>float</t>
